--- a/average_satisfaction_divergent_g2.xlsx
+++ b/average_satisfaction_divergent_g2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE08169-1511-4AB4-ADD0-2C1CF33484F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F3ADA-C906-4788-B87E-959AEC5BC387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{0D13CD3A-3FA1-49BC-87B0-60EBD43B3445}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{1FD17852-35F6-4211-A31D-2C55220A7765}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6C9FD9-1465-4234-AF6B-690541AE0FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A45584C-41CB-40A2-BDF8-335314D6AE00}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.80017949667499177</v>
+        <v>0.92582906809397025</v>
       </c>
       <c r="B1">
-        <v>0.85132733158238783</v>
+        <v>0.72003949811531232</v>
       </c>
       <c r="C1">
-        <v>0.90374708224123002</v>
+        <v>0.90240505258776293</v>
       </c>
       <c r="D1">
+        <v>0.62952297435503013</v>
+      </c>
+      <c r="E1">
+        <v>0.83786680843234507</v>
+      </c>
+      <c r="F1">
+        <v>0.70027831779835525</v>
+      </c>
+      <c r="G1">
+        <v>0.82814282278761142</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0.91859660375210928</v>
+      </c>
+      <c r="K1">
+        <v>0.92045434496185197</v>
+      </c>
+      <c r="L1">
+        <v>0.65971102048076735</v>
+      </c>
+      <c r="M1">
         <v>0.92690594841289631</v>
       </c>
-      <c r="E1">
-        <v>0.92105406283128521</v>
-      </c>
-      <c r="F1">
+      <c r="N1">
+        <v>0.75352226450466298</v>
+      </c>
+      <c r="O1">
+        <v>0.75847386090766156</v>
+      </c>
+      <c r="P1">
+        <v>0.71629582583017015</v>
+      </c>
+      <c r="Q1">
+        <v>0.86699508406674353</v>
+      </c>
+      <c r="R1">
+        <v>0.77671664341568247</v>
+      </c>
+      <c r="S1">
+        <v>0.5402796010609936</v>
+      </c>
+      <c r="T1">
+        <v>0.85636569459842082</v>
+      </c>
+      <c r="U1">
+        <v>0.75016682151577296</v>
+      </c>
+      <c r="V1">
+        <v>0.90063588824940277</v>
+      </c>
+      <c r="W1">
+        <v>0.76408086133739384</v>
+      </c>
+      <c r="X1">
+        <v>0.7271877882591653</v>
+      </c>
+      <c r="Y1">
+        <v>0.98160837378245669</v>
+      </c>
+      <c r="Z1">
+        <v>0.71611991955780352</v>
+      </c>
+      <c r="AA1">
+        <v>0.89925604838830531</v>
+      </c>
+      <c r="AB1">
+        <v>0.76492387975411413</v>
+      </c>
+      <c r="AC1">
+        <v>0.65644983216263808</v>
+      </c>
+      <c r="AD1">
+        <v>0.78840873803877454</v>
+      </c>
+      <c r="AE1">
+        <v>0.79918313063283264</v>
+      </c>
+      <c r="AF1">
+        <v>0.68549690269243235</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0.75632872866433942</v>
+      </c>
+      <c r="AI1">
+        <v>0.79867532383858764</v>
+      </c>
+      <c r="AJ1">
+        <v>0.64572730477020768</v>
+      </c>
+      <c r="AK1">
+        <v>0.53248823042037963</v>
+      </c>
+      <c r="AL1">
+        <v>0.75655610704256426</v>
+      </c>
+      <c r="AM1">
+        <v>0.76414075013000737</v>
+      </c>
+      <c r="AN1">
+        <v>0.91643471130177734</v>
+      </c>
+      <c r="AO1">
+        <v>0.65495801960888322</v>
+      </c>
+      <c r="AP1">
+        <v>0.7681515052037643</v>
+      </c>
+      <c r="AQ1">
+        <v>0.68690454589855365</v>
+      </c>
+      <c r="AR1">
+        <v>0.67774329396109056</v>
+      </c>
+      <c r="AS1">
+        <v>0.77931739314089887</v>
+      </c>
+      <c r="AT1">
+        <v>0.56976791396477111</v>
+      </c>
+      <c r="AU1">
+        <v>0.83872417597906257</v>
+      </c>
+      <c r="AV1">
+        <v>0.73326894463202363</v>
+      </c>
+      <c r="AW1">
+        <v>0.77463289049973783</v>
+      </c>
+      <c r="AX1">
+        <v>0.65416236941963879</v>
+      </c>
+      <c r="AY1">
+        <v>0.82380625255938833</v>
+      </c>
+      <c r="AZ1">
+        <v>0.80518272211533504</v>
+      </c>
+      <c r="BA1">
+        <v>0.75048893983651566</v>
+      </c>
+      <c r="BB1">
+        <v>0.56380455666995444</v>
+      </c>
+      <c r="BC1">
+        <v>0.73170178636874927</v>
+      </c>
+      <c r="BD1">
+        <v>0.83792470515206163</v>
+      </c>
+      <c r="BE1">
+        <v>0.79985197758969095</v>
+      </c>
+      <c r="BF1">
+        <v>0.77381816607291476</v>
+      </c>
+      <c r="BG1">
+        <v>0.84177989690696753</v>
+      </c>
+      <c r="BH1">
+        <v>0.93428133955422499</v>
+      </c>
+      <c r="BI1">
+        <v>0.56631669109147476</v>
+      </c>
+      <c r="BJ1">
+        <v>0.72558374006166881</v>
+      </c>
+      <c r="BK1">
+        <v>0.83521045257130189</v>
+      </c>
+      <c r="BL1">
+        <v>0.85598676884186131</v>
+      </c>
+      <c r="BM1">
+        <v>0.87037720334358404</v>
+      </c>
+      <c r="BN1">
+        <v>0.88020322568031928</v>
+      </c>
+      <c r="BO1">
+        <v>0.85270925304390699</v>
+      </c>
+      <c r="BP1">
+        <v>0.79063152550365812</v>
+      </c>
+      <c r="BQ1">
+        <v>0.87288516141067041</v>
+      </c>
+      <c r="BR1">
+        <v>0.85444587794153992</v>
+      </c>
+      <c r="BS1">
+        <v>0.68567900064002985</v>
+      </c>
+      <c r="BT1">
+        <v>0.75659178624723145</v>
+      </c>
+      <c r="BU1">
+        <v>0.71619441651424232</v>
+      </c>
+      <c r="BV1">
+        <v>0.67216139570810263</v>
+      </c>
+      <c r="BW1">
+        <v>0.71434850193898181</v>
+      </c>
+      <c r="BX1">
+        <v>1.0088437515432438</v>
+      </c>
+      <c r="BY1">
+        <v>0.78089504811370958</v>
+      </c>
+      <c r="BZ1">
+        <v>0.89918793160410326</v>
+      </c>
+      <c r="CA1">
+        <v>0.79314951069266526</v>
+      </c>
+      <c r="CB1">
+        <v>0.68796778989006979</v>
+      </c>
+      <c r="CC1">
+        <v>0.80216903886447211</v>
+      </c>
+      <c r="CD1">
+        <v>0.56541942096535991</v>
+      </c>
+      <c r="CE1">
+        <v>0.66898616135582023</v>
+      </c>
+      <c r="CF1">
+        <v>0.97845232689319594</v>
+      </c>
+      <c r="CG1">
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <v>0.88449730807844207</v>
+      </c>
+      <c r="CJ1">
+        <v>0.84313923370947663</v>
+      </c>
+      <c r="CK1">
+        <v>0.7889258845230569</v>
+      </c>
+      <c r="CL1">
+        <v>0.95956792308932748</v>
+      </c>
+      <c r="CM1">
+        <v>0.83162138662369645</v>
+      </c>
+      <c r="CN1">
+        <v>0.58899796106786972</v>
+      </c>
+      <c r="CO1">
+        <v>0.79620502507207258</v>
+      </c>
+      <c r="CP1">
+        <v>1.0192638914384953</v>
+      </c>
+      <c r="CQ1">
+        <v>0.6573113908858158</v>
+      </c>
+      <c r="CR1">
         <v>0.72619160191065768</v>
       </c>
-      <c r="G1">
-        <v>0.61684586502106298</v>
-      </c>
-      <c r="H1">
-        <v>0.83160550470221428</v>
-      </c>
-      <c r="I1">
-        <v>0.90364116574461162</v>
-      </c>
-      <c r="J1">
-        <v>0.87215865379566626</v>
-      </c>
-      <c r="K1">
-        <v>0.76090224078480828</v>
-      </c>
-      <c r="L1">
-        <v>0.80613490557696343</v>
-      </c>
-      <c r="M1">
-        <v>0.552150891136588</v>
-      </c>
-      <c r="N1">
-        <v>0.88819378501492852</v>
-      </c>
-      <c r="O1">
-        <v>0.7166330765725003</v>
-      </c>
-      <c r="P1">
-        <v>0.51105466198840721</v>
-      </c>
-      <c r="Q1">
-        <v>0.63595544602774556</v>
-      </c>
-      <c r="R1">
-        <v>0.81143405996279094</v>
-      </c>
-      <c r="S1">
-        <v>0.92778901362342536</v>
-      </c>
-      <c r="T1">
-        <v>0.79350902911656895</v>
-      </c>
-      <c r="U1">
-        <v>0.89386177362486574</v>
-      </c>
-      <c r="V1">
-        <v>0.79314951069266526</v>
-      </c>
-      <c r="W1">
-        <v>0.75809163475419705</v>
-      </c>
-      <c r="X1">
-        <v>0.97439522402021639</v>
-      </c>
-      <c r="Y1">
-        <v>0.7981544181049417</v>
-      </c>
-      <c r="Z1">
-        <v>0.93386194190032989</v>
-      </c>
-      <c r="AA1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0.83230509008234765</v>
-      </c>
-      <c r="AC1">
-        <v>0.81218024778021058</v>
-      </c>
-      <c r="AD1">
-        <v>0.9514672055032678</v>
-      </c>
-      <c r="AE1">
-        <v>0.67856697115924181</v>
-      </c>
-      <c r="AF1">
-        <v>0.92015346244305773</v>
-      </c>
-      <c r="AG1">
-        <v>0.67447081912465467</v>
-      </c>
-      <c r="AH1">
-        <v>0.98138044894257648</v>
-      </c>
-      <c r="AI1">
-        <v>0.93682698794916608</v>
-      </c>
-      <c r="AJ1">
-        <v>0.67631019720878838</v>
-      </c>
-      <c r="AK1">
-        <v>0.73326894463202363</v>
-      </c>
-      <c r="AL1">
-        <v>0.95898221025867147</v>
-      </c>
-      <c r="AM1">
-        <v>0.91847024569982905</v>
-      </c>
-      <c r="AN1">
-        <v>0.70624877122978491</v>
-      </c>
-      <c r="AO1">
-        <v>0.68796778989006979</v>
-      </c>
-      <c r="AP1">
-        <v>0.75890969051165869</v>
-      </c>
-      <c r="AQ1">
-        <v>0.94868034879435525</v>
-      </c>
-      <c r="AR1">
-        <v>0.9624867533460072</v>
-      </c>
-      <c r="AS1">
+      <c r="CS1">
+        <v>0</v>
+      </c>
+      <c r="CT1">
+        <v>0</v>
+      </c>
+      <c r="CU1">
         <v>0.89092231473911454</v>
       </c>
-      <c r="AT1">
-        <v>0.69205290687828735</v>
-      </c>
-      <c r="AU1">
-        <v>0.90555645295342113</v>
-      </c>
-      <c r="AV1">
-        <v>0.65195912520704857</v>
-      </c>
-      <c r="AW1">
-        <v>0</v>
-      </c>
-      <c r="AX1">
-        <v>0.87660493469043654</v>
-      </c>
-      <c r="AY1">
-        <v>0.85776199063698633</v>
-      </c>
-      <c r="AZ1">
-        <v>0.78997580767785236</v>
-      </c>
-      <c r="BA1">
-        <v>0.82350495753888187</v>
-      </c>
-      <c r="BB1">
-        <v>0</v>
-      </c>
-      <c r="BC1">
-        <v>0.89860789957251974</v>
-      </c>
-      <c r="BD1">
-        <v>0.71909689971683532</v>
-      </c>
-      <c r="BE1">
-        <v>0.60191013445922781</v>
-      </c>
-      <c r="BF1">
-        <v>0.87663149308238575</v>
-      </c>
-      <c r="BG1">
-        <v>0.86782922980663668</v>
-      </c>
-      <c r="BH1">
-        <v>0</v>
-      </c>
-      <c r="BI1">
-        <v>0.91682325465038661</v>
-      </c>
-      <c r="BJ1">
-        <v>0.8625602940961743</v>
-      </c>
-      <c r="BK1">
-        <v>0.73359909031674331</v>
-      </c>
-      <c r="BL1">
-        <v>0.75700306040668508</v>
-      </c>
-      <c r="BM1">
-        <v>0.93650817838730338</v>
-      </c>
-      <c r="BN1">
-        <v>0.75874877971136501</v>
-      </c>
-      <c r="BO1">
-        <v>0.7493703020865411</v>
-      </c>
-      <c r="BP1">
-        <v>0.88564048710514687</v>
-      </c>
-      <c r="BQ1">
-        <v>0.89757095987060298</v>
-      </c>
-      <c r="BR1">
-        <v>0.84273883286588702</v>
-      </c>
-      <c r="BS1">
-        <v>0.64572730477020779</v>
-      </c>
-      <c r="BT1">
-        <v>0.81122598049021943</v>
-      </c>
-      <c r="BU1">
-        <v>0.8187455348600422</v>
-      </c>
-      <c r="BV1">
-        <v>0.72673216485302083</v>
-      </c>
-      <c r="BW1">
-        <v>0.87288516141067041</v>
-      </c>
-      <c r="BX1">
-        <v>0.80700288661371455</v>
-      </c>
-      <c r="BY1">
-        <v>0.80973776101775385</v>
-      </c>
-      <c r="BZ1">
-        <v>0.77240041975056295</v>
-      </c>
-      <c r="CA1">
-        <v>0.75718078928739618</v>
-      </c>
-      <c r="CB1">
-        <v>0.87487724997094973</v>
-      </c>
-      <c r="CC1">
-        <v>0.97360016114555259</v>
-      </c>
-      <c r="CD1">
-        <v>0.58488019179250383</v>
-      </c>
-      <c r="CE1">
-        <v>0</v>
-      </c>
-      <c r="CF1">
-        <v>0.80741361304610215</v>
-      </c>
-      <c r="CG1">
-        <v>0.81420898892128302</v>
-      </c>
-      <c r="CH1">
-        <v>0.90631827776813223</v>
-      </c>
-      <c r="CI1">
-        <v>0.74294052198556537</v>
-      </c>
-      <c r="CJ1">
-        <v>0.75468272864221631</v>
-      </c>
-      <c r="CK1">
-        <v>0.74997689602851292</v>
-      </c>
-      <c r="CL1">
-        <v>0.88449730807844207</v>
-      </c>
-      <c r="CM1">
-        <v>0.85704870055398052</v>
-      </c>
-      <c r="CN1">
-        <v>0.8119459884195338</v>
-      </c>
-      <c r="CO1">
-        <v>0.85883196527317851</v>
-      </c>
-      <c r="CP1">
-        <v>0.63717768127383012</v>
-      </c>
-      <c r="CQ1">
-        <v>0.89627790260488593</v>
-      </c>
-      <c r="CR1">
-        <v>0.6541623694196389</v>
-      </c>
-      <c r="CS1">
-        <v>0.89857927987515573</v>
-      </c>
-      <c r="CT1">
-        <v>0.73596866119232252</v>
-      </c>
-      <c r="CU1">
-        <v>0.85733920305937472</v>
-      </c>
       <c r="CV1">
-        <v>0.79259036188091236</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
